--- a/target/test-classes/ObjectRepo.xlsx
+++ b/target/test-classes/ObjectRepo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AyaGhazy\Downloads\trash\code\java-keyword-driven-framework-selenium-webdriver-master\VodafoneTask\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A76DAA8-DBC7-4104-8067-27CFAE8844AB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7775DFEA-96EB-4D44-A87B-E40C3DB667D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{C7FD100D-34AA-4B75-9636-C991D1D06479}"/>
   </bookViews>
